--- a/dados/jotacar parts.xlsx
+++ b/dados/jotacar parts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,210 +483,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>jotacar parts</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>499.9</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:129467482#searchVariation=MLB21455208&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=dfa6faa1-5e5d-4a07-8a53-38f72c91af67</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:129467482#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f4dc8cf6-1ac8-42d8-ad0d-bcd4f0ed286c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>jotacar parts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>634.6</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>674.97</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:129467482#searchVariation=MLB27869459&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=dfa6faa1-5e5d-4a07-8a53-38f72c91af67</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:129467482#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=f4dc8cf6-1ac8-42d8-ad0d-bcd4f0ed286c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>jotacar parts</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor Cor Preto</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>674.97</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>634.6</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:129467482#searchVariation=MLB21392652&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=dfa6faa1-5e5d-4a07-8a53-38f72c91af67</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-cor-preto/p/MLB27869459?pdp_filters=seller_id:129467482#searchVariation=MLB27869459&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f4dc8cf6-1ac8-42d8-ad0d-bcd4f0ed286c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>jotacar parts</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>489.9</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:129467482#searchVariation=MLB21320712&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=dfa6faa1-5e5d-4a07-8a53-38f72c91af67</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:129467482#searchVariation=MLB21320712&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f4dc8cf6-1ac8-42d8-ad0d-bcd4f0ed286c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>jotacar parts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Fonte Carregador De Bateria 70a Storm Plus Automotiva Jfa</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>539.9</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3703963247-fonte-carregador-de-bateria-70a-storm-plus-automotiva-jfa-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Ddfa6faa1-5e5d-4a07-8a53-38f72c91af67</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3703963247-fonte-carregador-de-bateria-70a-storm-plus-automotiva-jfa-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df4dc8cf6-1ac8-42d8-ad0d-bcd4f0ed286c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>jotacar parts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Fonte Bivolt Para Caixa Bob 90a Jfa Carregador De Bateria</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>427.4</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>446.3</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3703749027-fonte-bivolt-para-caixa-bob-90a-jfa-carregador-de-bateria-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Ddfa6faa1-5e5d-4a07-8a53-38f72c91af67</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3703784627-fonte-bivolt-para-caixa-bob-90a-jfa-carregador-de-bateria-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df4dc8cf6-1ac8-42d8-ad0d-bcd4f0ed286c</t>
         </is>
       </c>
     </row>
